--- a/results/FrequencyTables/26990633_Pol-B.xlsx
+++ b/results/FrequencyTables/26990633_Pol-B.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.0372839506172839</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="D2">
-        <v>0.99</v>
+        <v>0.948641975308642</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00148148148148148</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.000740740740740741</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00148148148148148</v>
       </c>
       <c r="J2">
-        <v>0.96</v>
+        <v>0.947901234567901</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.000493827160493827</v>
       </c>
       <c r="M2">
-        <v>0.97</v>
+        <v>0.907901234567901</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000740740740740741</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.74</v>
+        <v>0.955061728395062</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.998518518518518</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.999259259259259</v>
       </c>
       <c r="U2">
-        <v>0.97</v>
+        <v>0.995061728395062</v>
       </c>
       <c r="V2">
-        <v>0.98</v>
+        <v>0.946913580246914</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00271604938271605</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0017283950617284</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -542,67 +542,67 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999259259259259</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00567901234567901</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0017283950617284</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000987654320987654</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00839506172839506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.997530864197531</v>
       </c>
       <c r="L3">
-        <v>0.99</v>
+        <v>0.998518518518518</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00222222222222222</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.999753086419753</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00641975308641975</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.999259259259259</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000740740740740741</v>
       </c>
       <c r="S3">
-        <v>0.91</v>
+        <v>0.909876543209877</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="U3">
-        <v>0.03</v>
+        <v>0.00345679012345679</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000493827160493827</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -613,49 +613,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.98</v>
+        <v>0.942962962962963</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.000493827160493827</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0133333333333333</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.997530864197531</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.999012345679012</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.997777777777778</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.0348148148148148</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.000987654320987654</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="M4">
-        <v>0.03</v>
+        <v>0.051358024691358</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.999012345679012</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.26</v>
+        <v>0.0365432098765432</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.000740740740740741</v>
       </c>
       <c r="V4">
-        <v>0.02</v>
+        <v>0.0461728395061728</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.996296296296296</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.997037037037037</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0160493827160494</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.0276543209876543</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.998024691358025</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.000987654320987654</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.998024691358025</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00222222222222222</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.000987654320987654</v>
       </c>
       <c r="L5">
-        <v>0.01</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.031358024691358</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000493827160493827</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="S5">
-        <v>0.09</v>
+        <v>0.0785185185185185</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000246913580246914</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000493827160493827</v>
       </c>
     </row>
   </sheetData>
